--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mdk-Itga6.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H2">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I2">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J2">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N2">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O2">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P2">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q2">
-        <v>373.7373986214</v>
+        <v>381.1032010324</v>
       </c>
       <c r="R2">
-        <v>1494.9495944856</v>
+        <v>1524.4128041296</v>
       </c>
       <c r="S2">
-        <v>0.02599350760511385</v>
+        <v>0.04982605709518877</v>
       </c>
       <c r="T2">
-        <v>0.01741612106036582</v>
+        <v>0.03109012179991847</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H3">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I3">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J3">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.424846</v>
       </c>
       <c r="O3">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P3">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q3">
-        <v>0.831272966975</v>
+        <v>0.7914772556693334</v>
       </c>
       <c r="R3">
-        <v>4.98763780185</v>
+        <v>4.748863534016</v>
       </c>
       <c r="S3">
-        <v>5.781519395354664E-05</v>
+        <v>0.0001034790335628034</v>
       </c>
       <c r="T3">
-        <v>5.810584121544654E-05</v>
+        <v>9.685220780341639E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H4">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I4">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J4">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N4">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O4">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P4">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q4">
-        <v>133.4977970997</v>
+        <v>63.83263461497067</v>
       </c>
       <c r="R4">
-        <v>800.9867825982</v>
+        <v>382.995807689824</v>
       </c>
       <c r="S4">
-        <v>0.009284797338925725</v>
+        <v>0.008345583265230707</v>
       </c>
       <c r="T4">
-        <v>0.009331473666363501</v>
+        <v>0.00781112981843103</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H5">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I5">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J5">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N5">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O5">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P5">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q5">
-        <v>10.57879687404375</v>
+        <v>13.423081993888</v>
       </c>
       <c r="R5">
-        <v>42.31518749617499</v>
+        <v>53.692327975552</v>
       </c>
       <c r="S5">
-        <v>0.0007357573473051557</v>
+        <v>0.001754955739046661</v>
       </c>
       <c r="T5">
-        <v>0.0004929707535584475</v>
+        <v>0.00109504526067938</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H6">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I6">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J6">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N6">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O6">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P6">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q6">
-        <v>255.6393514541625</v>
+        <v>35.47567220329066</v>
       </c>
       <c r="R6">
-        <v>1533.836108724975</v>
+        <v>212.854033219744</v>
       </c>
       <c r="S6">
-        <v>0.0177797658214065</v>
+        <v>0.00463814752514001</v>
       </c>
       <c r="T6">
-        <v>0.01786914786615697</v>
+        <v>0.004341119282440194</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.7502375</v>
+        <v>1.666448</v>
       </c>
       <c r="H7">
-        <v>3.500475</v>
+        <v>3.332896</v>
       </c>
       <c r="I7">
-        <v>0.06096295440307654</v>
+        <v>0.08698774157534103</v>
       </c>
       <c r="J7">
-        <v>0.05231488010959406</v>
+        <v>0.0653244391585683</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N7">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O7">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P7">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q7">
-        <v>102.2471822703375</v>
+        <v>170.714694293136</v>
       </c>
       <c r="R7">
-        <v>613.4830936220249</v>
+        <v>1024.288165758816</v>
       </c>
       <c r="S7">
-        <v>0.007111311096371765</v>
+        <v>0.02231951891717209</v>
       </c>
       <c r="T7">
-        <v>0.007147060921933874</v>
+        <v>0.0208901707892958</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I8">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J8">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N8">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O8">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P8">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q8">
-        <v>682.9523461013761</v>
+        <v>731.4281280306</v>
       </c>
       <c r="R8">
-        <v>4097.714076608257</v>
+        <v>4388.5687681836</v>
       </c>
       <c r="S8">
-        <v>0.04749946638414895</v>
+        <v>0.09562811220045715</v>
       </c>
       <c r="T8">
-        <v>0.04773825464900112</v>
+        <v>0.08950406160360917</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I9">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J9">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.424846</v>
       </c>
       <c r="O9">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P9">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q9">
         <v>1.519034019984</v>
@@ -1013,10 +1013,10 @@
         <v>13.671306179856</v>
       </c>
       <c r="S9">
-        <v>0.0001056491068234772</v>
+        <v>0.0001986009973262393</v>
       </c>
       <c r="T9">
-        <v>0.0001592703355082873</v>
+        <v>0.0002788238022826038</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I10">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J10">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N10">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O10">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P10">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q10">
-        <v>243.948382112448</v>
+        <v>122.510082091176</v>
       </c>
       <c r="R10">
-        <v>2195.535439012032</v>
+        <v>1102.590738820584</v>
       </c>
       <c r="S10">
-        <v>0.01696665666611201</v>
+        <v>0.01601716891507359</v>
       </c>
       <c r="T10">
-        <v>0.02557792659980235</v>
+        <v>0.02248713752110398</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I11">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J11">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N11">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O11">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P11">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q11">
-        <v>19.331258179428</v>
+        <v>25.762102518672</v>
       </c>
       <c r="R11">
-        <v>115.987549076568</v>
+        <v>154.572615112032</v>
       </c>
       <c r="S11">
-        <v>0.001344492706260863</v>
+        <v>0.003368179504948133</v>
       </c>
       <c r="T11">
-        <v>0.00135125171020078</v>
+        <v>0.00315248036342027</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I12">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J12">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N12">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O12">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P12">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q12">
-        <v>467.144833445784</v>
+        <v>68.086293791256</v>
       </c>
       <c r="R12">
-        <v>4204.303501012057</v>
+        <v>612.776644121304</v>
       </c>
       <c r="S12">
-        <v>0.0324900125747473</v>
+        <v>0.008901713637284571</v>
       </c>
       <c r="T12">
-        <v>0.04898001846901142</v>
+        <v>0.01249746817283815</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>9.594936000000001</v>
       </c>
       <c r="I13">
-        <v>0.1114011947651748</v>
+        <v>0.1669502665149541</v>
       </c>
       <c r="J13">
-        <v>0.1433970893947902</v>
+        <v>0.1880598173367416</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N13">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O13">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P13">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q13">
-        <v>186.842294272296</v>
+        <v>327.642299870184</v>
       </c>
       <c r="R13">
-        <v>1681.580648450664</v>
+        <v>2948.780698831656</v>
       </c>
       <c r="S13">
-        <v>0.01299491732708217</v>
+        <v>0.04283649125986441</v>
       </c>
       <c r="T13">
-        <v>0.01959036763126619</v>
+        <v>0.06013984587348743</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H14">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I14">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J14">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N14">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O14">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P14">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q14">
-        <v>547.6366965473441</v>
+        <v>598.497516245475</v>
       </c>
       <c r="R14">
-        <v>3285.820179284065</v>
+        <v>3590.98509747285</v>
       </c>
       <c r="S14">
-        <v>0.03808823705909888</v>
+        <v>0.07824854615493103</v>
       </c>
       <c r="T14">
-        <v>0.03827971340043427</v>
+        <v>0.07323748774589238</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H15">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I15">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J15">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.424846</v>
       </c>
       <c r="O15">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P15">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q15">
-        <v>1.218062691190445</v>
+        <v>1.242962983254</v>
       </c>
       <c r="R15">
-        <v>10.962564220714</v>
+        <v>11.186666849286</v>
       </c>
       <c r="S15">
-        <v>8.47164933018596E-05</v>
+        <v>0.0001625070175297603</v>
       </c>
       <c r="T15">
-        <v>0.0001277135672695947</v>
+        <v>0.0002281500351723914</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H16">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I16">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J16">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N16">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O16">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P16">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q16">
-        <v>195.6140671757787</v>
+        <v>100.244955090831</v>
       </c>
       <c r="R16">
-        <v>1760.526604582008</v>
+        <v>902.204595817479</v>
       </c>
       <c r="S16">
-        <v>0.01360499581138174</v>
+        <v>0.01310618972060468</v>
       </c>
       <c r="T16">
-        <v>0.02051008581727161</v>
+        <v>0.01840029859131711</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H17">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I17">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J17">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N17">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O17">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P17">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q17">
-        <v>15.5010908592945</v>
+        <v>21.080067582582</v>
       </c>
       <c r="R17">
-        <v>93.006545155767</v>
+        <v>126.480405495492</v>
       </c>
       <c r="S17">
-        <v>0.001078103836075561</v>
+        <v>0.002756042583989929</v>
       </c>
       <c r="T17">
-        <v>0.00108352365579027</v>
+        <v>0.002579544859178194</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H18">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I18">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J18">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N18">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O18">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P18">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q18">
-        <v>374.5878535417377</v>
+        <v>55.71221034956099</v>
       </c>
       <c r="R18">
-        <v>3371.290681875639</v>
+        <v>501.4098931460489</v>
       </c>
       <c r="S18">
-        <v>0.02605265690759508</v>
+        <v>0.00728390568816134</v>
       </c>
       <c r="T18">
-        <v>0.03927544237063903</v>
+        <v>0.01022616354793453</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.564619666666667</v>
+        <v>2.617047</v>
       </c>
       <c r="H19">
-        <v>7.693859000000001</v>
+        <v>7.851141</v>
       </c>
       <c r="I19">
-        <v>0.0893289006778985</v>
+        <v>0.1366085279147753</v>
       </c>
       <c r="J19">
-        <v>0.1149853408937705</v>
+        <v>0.1538816040404024</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N19">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O19">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P19">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q19">
-        <v>149.822600939449</v>
+        <v>268.096201355079</v>
       </c>
       <c r="R19">
-        <v>1348.403408455041</v>
+        <v>2412.865812195711</v>
       </c>
       <c r="S19">
-        <v>0.0104201905704454</v>
+        <v>0.03505133674955863</v>
       </c>
       <c r="T19">
-        <v>0.01570886208236575</v>
+        <v>0.04920995926090783</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H20">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I20">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J20">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N20">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O20">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P20">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q20">
-        <v>3729.96377927028</v>
+        <v>1094.22545523445</v>
       </c>
       <c r="R20">
-        <v>14919.85511708112</v>
+        <v>4376.9018209378</v>
       </c>
       <c r="S20">
-        <v>0.2594196947399356</v>
+        <v>0.1430608293497001</v>
       </c>
       <c r="T20">
-        <v>0.1738158957871848</v>
+        <v>0.08926611633712851</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H21">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I21">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J21">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.424846</v>
       </c>
       <c r="O21">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P21">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q21">
-        <v>8.296247763645001</v>
+        <v>2.272493534681333</v>
       </c>
       <c r="R21">
-        <v>49.77748658187</v>
+        <v>13.634961208088</v>
       </c>
       <c r="S21">
-        <v>0.0005770056198113302</v>
+        <v>0.0002971095291268706</v>
       </c>
       <c r="T21">
-        <v>0.0005799063296772135</v>
+        <v>0.0002780825531957287</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H22">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I22">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J22">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N22">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O22">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P22">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q22">
-        <v>1332.33106890294</v>
+        <v>183.2765861875887</v>
       </c>
       <c r="R22">
-        <v>7993.98641341764</v>
+        <v>1099.659517125532</v>
       </c>
       <c r="S22">
-        <v>0.09266388084201492</v>
+        <v>0.02396188125120921</v>
       </c>
       <c r="T22">
-        <v>0.09312971865041852</v>
+        <v>0.02242735578791802</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H23">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I23">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J23">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N23">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O23">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P23">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q23">
-        <v>105.5782196643712</v>
+        <v>38.540421506884</v>
       </c>
       <c r="R23">
-        <v>422.3128786574849</v>
+        <v>154.161686027536</v>
       </c>
       <c r="S23">
-        <v>0.007342985384666491</v>
+        <v>0.005038837871926942</v>
       </c>
       <c r="T23">
-        <v>0.00491993325205132</v>
+        <v>0.00314409953950335</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H24">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I24">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J24">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N24">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O24">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P24">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q24">
-        <v>2551.324874089208</v>
+        <v>101.8579310308487</v>
       </c>
       <c r="R24">
-        <v>15307.94924453524</v>
+        <v>611.147586185092</v>
       </c>
       <c r="S24">
-        <v>0.1774451333004934</v>
+        <v>0.01331707283851807</v>
       </c>
       <c r="T24">
-        <v>0.1783371815425643</v>
+        <v>0.01246424383260777</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.4676725</v>
+        <v>4.784714</v>
       </c>
       <c r="H25">
-        <v>34.935345</v>
+        <v>9.569428</v>
       </c>
       <c r="I25">
-        <v>0.6084208126870634</v>
+        <v>0.2497596474320929</v>
       </c>
       <c r="J25">
-        <v>0.5221115377948153</v>
+        <v>0.1875598630045162</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N25">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O25">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P25">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q25">
-        <v>1020.444536210692</v>
+        <v>490.156901259498</v>
       </c>
       <c r="R25">
-        <v>6122.667217264154</v>
+        <v>2940.941407556988</v>
       </c>
       <c r="S25">
-        <v>0.07097211280014165</v>
+        <v>0.06408391659161172</v>
       </c>
       <c r="T25">
-        <v>0.07132890223291924</v>
+        <v>0.05997996495416279</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H26">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I26">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J26">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N26">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O26">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P26">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q26">
-        <v>233.342136998736</v>
+        <v>1120.420133246517</v>
       </c>
       <c r="R26">
-        <v>1400.052821992416</v>
+        <v>6722.5207994791</v>
       </c>
       <c r="S26">
-        <v>0.01622899028848451</v>
+        <v>0.1464855644836051</v>
       </c>
       <c r="T26">
-        <v>0.01631057630883995</v>
+        <v>0.1371045886600424</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H27">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I27">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J27">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.424846</v>
       </c>
       <c r="O27">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P27">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q27">
-        <v>0.5190034801406667</v>
+        <v>2.326894788226222</v>
       </c>
       <c r="R27">
-        <v>4.671031321266001</v>
+        <v>20.942053094036</v>
       </c>
       <c r="S27">
-        <v>3.609679137779631E-05</v>
+        <v>0.0003042220381738545</v>
       </c>
       <c r="T27">
-        <v>5.441738455129751E-05</v>
+        <v>0.0004271093628117974</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H28">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I28">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J28">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N28">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O28">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P28">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q28">
-        <v>83.34906106472801</v>
+        <v>187.6640468698171</v>
       </c>
       <c r="R28">
-        <v>750.1415495825521</v>
+        <v>1688.976421828354</v>
       </c>
       <c r="S28">
-        <v>0.005796943149539682</v>
+        <v>0.02453550505143812</v>
       </c>
       <c r="T28">
-        <v>0.008739128120527398</v>
+        <v>0.03444636684340639</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H29">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I29">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J29">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N29">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O29">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P29">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q29">
-        <v>6.604848962320499</v>
+        <v>39.46304117999867</v>
       </c>
       <c r="R29">
-        <v>39.629093773923</v>
+        <v>236.778247079992</v>
       </c>
       <c r="S29">
-        <v>0.0004593685094560824</v>
+        <v>0.005159462680076604</v>
       </c>
       <c r="T29">
-        <v>0.0004616778366475423</v>
+        <v>0.004829049271526781</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H30">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I30">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J30">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N30">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O30">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P30">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q30">
-        <v>159.607876517899</v>
+        <v>104.2963094231304</v>
       </c>
       <c r="R30">
-        <v>1436.470888661091</v>
+        <v>938.6667848081739</v>
       </c>
       <c r="S30">
-        <v>0.01110075835976701</v>
+        <v>0.01363587042579726</v>
       </c>
       <c r="T30">
-        <v>0.01673484576931254</v>
+        <v>0.01914393830212341</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.092757</v>
+        <v>4.899255333333334</v>
       </c>
       <c r="H31">
-        <v>3.278271</v>
+        <v>14.697766</v>
       </c>
       <c r="I31">
-        <v>0.03806208881060012</v>
+        <v>0.2557386470190557</v>
       </c>
       <c r="J31">
-        <v>0.04899402347731638</v>
+        <v>0.2880747916628283</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N31">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O31">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P31">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q31">
-        <v>63.83780724398099</v>
+        <v>501.890773965954</v>
       </c>
       <c r="R31">
-        <v>574.540265195829</v>
+        <v>4517.016965693586</v>
       </c>
       <c r="S31">
-        <v>0.004439931711975044</v>
+        <v>0.06561802233996476</v>
       </c>
       <c r="T31">
-        <v>0.006693378057437659</v>
+        <v>0.09212373922291754</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H32">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I32">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J32">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>213.535248</v>
+        <v>228.691925</v>
       </c>
       <c r="N32">
-        <v>427.070496</v>
+        <v>457.38385</v>
       </c>
       <c r="O32">
-        <v>0.4263820193694889</v>
+        <v>0.5727940074410816</v>
       </c>
       <c r="P32">
-        <v>0.3329095091851672</v>
+        <v>0.4759340026548169</v>
       </c>
       <c r="Q32">
-        <v>562.9333652162401</v>
+        <v>455.4394350230083</v>
       </c>
       <c r="R32">
-        <v>3377.600191297441</v>
+        <v>2732.63661013805</v>
       </c>
       <c r="S32">
-        <v>0.0391521232927071</v>
+        <v>0.05954489815719935</v>
       </c>
       <c r="T32">
-        <v>0.03934894797934112</v>
+        <v>0.05573162650822598</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H33">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I33">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J33">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.424846</v>
       </c>
       <c r="O33">
-        <v>0.0009483660121076572</v>
+        <v>0.00118958179266189</v>
       </c>
       <c r="P33">
-        <v>0.001110694339616588</v>
+        <v>0.001482633590903363</v>
       </c>
       <c r="Q33">
-        <v>1.252085797243333</v>
+        <v>0.9458591614531111</v>
       </c>
       <c r="R33">
-        <v>11.26877217519</v>
+        <v>8.512732453078</v>
       </c>
       <c r="S33">
-        <v>8.708280683964726E-05</v>
+        <v>0.0001236631769423616</v>
       </c>
       <c r="T33">
-        <v>0.0001312808813947482</v>
+        <v>0.0001736156296374254</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H34">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I34">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J34">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>76.27410400000001</v>
+        <v>38.30460633333333</v>
       </c>
       <c r="N34">
-        <v>228.822312</v>
+        <v>114.913819</v>
       </c>
       <c r="O34">
-        <v>0.1523022863612588</v>
+        <v>0.09593976247794071</v>
       </c>
       <c r="P34">
-        <v>0.1783713094021254</v>
+        <v>0.1195743877642841</v>
       </c>
       <c r="Q34">
-        <v>201.07798804052</v>
+        <v>76.28353413541855</v>
       </c>
       <c r="R34">
-        <v>1809.70189236468</v>
+        <v>686.551807218767</v>
       </c>
       <c r="S34">
-        <v>0.01398501255328471</v>
+        <v>0.009973434274384399</v>
       </c>
       <c r="T34">
-        <v>0.02108297654774205</v>
+        <v>0.01400209920210756</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H35">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I35">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J35">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>6.0442065</v>
+        <v>8.054906000000001</v>
       </c>
       <c r="N35">
-        <v>12.088413</v>
+        <v>16.109812</v>
       </c>
       <c r="O35">
-        <v>0.01206892537458823</v>
+        <v>0.02017474769737153</v>
       </c>
       <c r="P35">
-        <v>0.009423146005987718</v>
+        <v>0.01676317890799293</v>
       </c>
       <c r="Q35">
-        <v>15.9340696066575</v>
+        <v>16.04132650421933</v>
       </c>
       <c r="R35">
-        <v>95.604417639945</v>
+        <v>96.24795902531601</v>
       </c>
       <c r="S35">
-        <v>0.001108217590824076</v>
+        <v>0.002097269317383262</v>
       </c>
       <c r="T35">
-        <v>0.001113788797739357</v>
+        <v>0.001962959613684954</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H36">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I36">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J36">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>146.059807</v>
+        <v>21.28819633333333</v>
       </c>
       <c r="N36">
-        <v>438.179421</v>
+        <v>63.864589</v>
       </c>
       <c r="O36">
-        <v>0.291648690512106</v>
+        <v>0.05331955332031307</v>
       </c>
       <c r="P36">
-        <v>0.3415691258151223</v>
+        <v>0.06645475014186616</v>
       </c>
       <c r="Q36">
-        <v>385.0508965027851</v>
+        <v>42.39539332537522</v>
       </c>
       <c r="R36">
-        <v>3465.458068525065</v>
+        <v>381.5585399283769</v>
       </c>
       <c r="S36">
-        <v>0.02678036354809676</v>
+        <v>0.005542843205411813</v>
       </c>
       <c r="T36">
-        <v>0.04037248979743806</v>
+        <v>0.007781817003922105</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.636255</v>
+        <v>1.991497666666667</v>
       </c>
       <c r="H37">
-        <v>7.908765000000001</v>
+        <v>5.974493</v>
       </c>
       <c r="I37">
-        <v>0.09182404865618671</v>
+        <v>0.1039551695437809</v>
       </c>
       <c r="J37">
-        <v>0.1181971283297135</v>
+        <v>0.117099484796943</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>58.41903299999999</v>
+        <v>102.442257</v>
       </c>
       <c r="N37">
-        <v>175.257099</v>
+        <v>307.326771</v>
       </c>
       <c r="O37">
-        <v>0.1166497123704505</v>
+        <v>0.2565823472706314</v>
       </c>
       <c r="P37">
-        <v>0.1366162152519809</v>
+        <v>0.3197910469401364</v>
       </c>
       <c r="Q37">
-        <v>154.007467841415</v>
+        <v>204.013515783567</v>
       </c>
       <c r="R37">
-        <v>1386.067210572735</v>
+        <v>1836.121642052103</v>
       </c>
       <c r="S37">
-        <v>0.01071124886443443</v>
+        <v>0.02667306141245977</v>
       </c>
       <c r="T37">
-        <v>0.01614764432605814</v>
+        <v>0.037447366839365</v>
       </c>
     </row>
   </sheetData>
